--- a/worksheet/week1_first_prob.xlsx
+++ b/worksheet/week1_first_prob.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tami/Dropbox (University of Oregon)/EC320--Ren--2022/EC320/EC320/worksheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC7DD1A3-93F3-E245-94CC-680BD6F1B9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4387C2B1-D0D5-6E42-8491-CC6A0EC10982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="27660" windowHeight="16940" xr2:uid="{D80256E4-7867-3F49-8663-AF45999943D9}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="27660" windowHeight="16940" activeTab="3" xr2:uid="{D80256E4-7867-3F49-8663-AF45999943D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="#5" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$1:$D$37</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet3!$F$3:$F$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet3!$G$3:$G$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>X</t>
   </si>
@@ -90,6 +97,117 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total 36 </t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>pX</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>mu_x</t>
+  </si>
+  <si>
+    <t>mu_y</t>
+  </si>
+  <si>
+    <t>x-mu_x</t>
+  </si>
+  <si>
+    <t>y-mu_y</t>
+  </si>
+  <si>
+    <t>COV</t>
+  </si>
+  <si>
+    <t>CORR</t>
+  </si>
+  <si>
+    <t>x_mu_x^2</t>
+  </si>
+  <si>
+    <t>y-mu_y^2</t>
+  </si>
+  <si>
+    <t>X-mu_x</t>
+  </si>
+  <si>
+    <t>(X-mu_x)^2</t>
+  </si>
+  <si>
+    <t>p*(X-mu_x)^2</t>
+  </si>
+  <si>
+    <t>E(X^2) - mu^2</t>
+  </si>
+  <si>
+    <t>(x-mu_x)*(y-mu_y)</t>
+  </si>
+  <si>
+    <t>ST_X</t>
+  </si>
+  <si>
+    <t>ST_Y</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>Excel CORR</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Body_weight</t>
+  </si>
+  <si>
+    <t>Heart_weight</t>
+  </si>
+  <si>
+    <t>1) Sample mean of body weight</t>
+  </si>
+  <si>
+    <t>2) Sample variance of heart weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Correlation coefficent btw Bodyweight and Heart Weight </t>
+  </si>
+  <si>
+    <t>Mean of Bodyweight</t>
+  </si>
+  <si>
+    <t>Mean of heart weight</t>
+  </si>
+  <si>
+    <t>BW - mean_BW</t>
+  </si>
+  <si>
+    <t>HW-mean_HW</t>
+  </si>
+  <si>
+    <t>(BW-mean_BW)^2</t>
+  </si>
+  <si>
+    <t>(HW-mean_HW)^2</t>
+  </si>
+  <si>
+    <t>(BW-mean_BW)*(HW-mean_HW)</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -148,13 +266,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -171,6 +293,907 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DD6-6A4B-A90F-428FA0BCEEB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013797055"/>
+        <c:axId val="1013656479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013797055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013656479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1013656479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013797055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB91A0F6-D708-EAD1-AD46-4691019A8C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,15 +1493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192B3DD5-06AE-6D49-85F2-BBB80C704AF2}">
-  <dimension ref="B1:E1"/>
+  <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -488,26 +1511,575 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>4</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>ABS(B2-C2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f>SUM(I2:N2)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D37" si="0">ABS(B3-C3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4">
+        <f>I2/$O$2</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:N3" si="1">J2/$O$2</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>O2/$O$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <f>I1*I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:N4" si="2">J1*J3</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="O4">
+        <f>SUM(I4:N4)</f>
+        <v>1.9444444444444446</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>ABS(B5-C5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>ABS(B6-C6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>ABS(B7-C7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>ABS(B8-C8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>ABS(B9-C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>ABS(B10-C10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>ABS(B11-C11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>ABS(B12-C12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f>ABS(B13-C13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>ABS(B14-C14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>ABS(B15-C15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>ABS(B16-C16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f>ABS(B17-C17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f>ABS(B18-C18)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f>ABS(B19-C19)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>ABS(B20-C20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>ABS(B21-C21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f>ABS(B22-C22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f>ABS(B23-C23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f>ABS(B24-C24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f>ABS(B25-C25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>ABS(B26-C26)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f>ABS(B27-C27)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f>ABS(B28-C28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>ABS(B29-C29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <f>ABS(B30-C30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f>ABS(B31-C31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>ABS(B32-C32)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f>ABS(B33-C33)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f>ABS(B34-C34)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:D37" xr:uid="{192B3DD5-06AE-6D49-85F2-BBB80C704AF2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D34">
+      <sortCondition ref="D1:D37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F52517-7A0B-0C45-91C0-733059F9B1B5}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="9" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -532,8 +2104,17 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <f>6/36</f>
         <v>0.16666666666666666</v>
@@ -564,8 +2145,20 @@
         <f>B2*H2</f>
         <v>0.63014403292181076</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <f>C2-D$9</f>
+        <v>-1.9444444444444446</v>
+      </c>
+      <c r="K2" s="2">
+        <f>J2^2</f>
+        <v>3.7808641975308648</v>
+      </c>
+      <c r="L2">
+        <f>K2*B2</f>
+        <v>0.63014403292181076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>0.27777777777777779</v>
       </c>
@@ -595,8 +2188,20 @@
         <f t="shared" ref="I3:I7" si="2">B3*H3</f>
         <v>0.24777091906721549</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J7" si="3">C3-D$9</f>
+        <v>-0.94444444444444464</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3^2</f>
+        <v>0.89197530864197572</v>
+      </c>
+      <c r="L3">
+        <f>K3*B3</f>
+        <v>0.24777091906721549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -615,19 +2220,31 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G3:G7" si="3">C4-D$9</f>
+        <f t="shared" ref="G3:G7" si="4">C4-D$9</f>
         <v>5.5555555555555358E-2</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H3:H7" si="4">G4^2</f>
+        <f t="shared" ref="H3:H7" si="5">G4^2</f>
         <v>3.0864197530863979E-3</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
         <v>6.8587105624142168E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555358E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K3:K6" si="6">J4^2</f>
+        <v>3.0864197530863979E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L3:L7" si="7">K4*B4</f>
+        <v>6.8587105624142168E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -646,19 +2263,31 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0555555555555554</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1141975308641971</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
         <v>0.18569958847736617</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1141975308641971</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>0.18569958847736617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>0.1111111111111111</v>
       </c>
@@ -673,23 +2302,35 @@
         <v>16</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f>E6*B6</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0555555555555554</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2253086419753076</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
         <v>0.46947873799725637</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0555555555555554</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="6"/>
+        <v>4.2253086419753076</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>0.46947873799725637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
@@ -708,19 +2349,31 @@
         <v>1.3888888888888888</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0555555555555554</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3364197530864192</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
         <v>0.51868998628257879</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="K7" s="2">
+        <f>J7^2</f>
+        <v>9.3364197530864192</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>0.51868998628257879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -733,7 +2386,7 @@
         <v>2.0524691358024691</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -751,8 +2404,15 @@
         <f>SUM(F2:F7)</f>
         <v>5.8333333333333339</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(L2:L7)</f>
+        <v>2.0524691358024691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -760,8 +2420,15 @@
         <f>D9^2</f>
         <v>3.7808641975308648</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2">
+        <f>F9-D9^2</f>
+        <v>2.0524691358024691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -770,13 +2437,559 @@
         <v>2.0524691358024691</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4">
         <f>SQRT(D11)</f>
         <v>1.4326441064697364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AB5B15-E768-A24E-9E82-F77F9DAB69EB}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.25</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>C3-A$3</f>
+        <v>-0.25</v>
+      </c>
+      <c r="G3">
+        <f>D3-B$3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H3">
+        <f>F3*G3</f>
+        <v>0.125</v>
+      </c>
+      <c r="I3">
+        <f>F3^2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J3">
+        <f>G3^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="K3">
+        <f>I3*J3</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F6" si="0">C4-A$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G6" si="1">D4-B$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="2">F4*G4</f>
+        <v>0.375</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:J6" si="3">F4^2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="4">I4*J4</f>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>5.625</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>5.0625</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>31.640625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>19.140625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f>SUM(I3:I6)/4</f>
+        <v>2.1875</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J3:J6)/4</f>
+        <v>3.25</v>
+      </c>
+      <c r="K7">
+        <f>SQRT(I7*J7)</f>
+        <v>2.6663411259626928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H3:H6)/4</f>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <f>SUM(I3:I6)/4</f>
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <f>SUM(J3:J6)/4</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <f>H8/SQRT(H9*H10)</f>
+        <v>0.98449518497084032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <f>CORREL(C3:C6,D3:D6)</f>
+        <v>0.98449518497084032</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02A1054-45D2-F34F-9891-456A27B8984B}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>6.5</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:B6)</f>
+        <v>2.52</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="H2">
+        <f>B2-E$2</f>
+        <v>-0.52</v>
+      </c>
+      <c r="I2">
+        <f>C2-F$2</f>
+        <v>-1.9599999999999991</v>
+      </c>
+      <c r="J2">
+        <f>H2^2</f>
+        <v>0.27040000000000003</v>
+      </c>
+      <c r="K2">
+        <f>I2^2</f>
+        <v>3.8415999999999966</v>
+      </c>
+      <c r="L2">
+        <f>H2*I2</f>
+        <v>1.0191999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C3">
+        <v>7.6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="0">B3-E$2</f>
+        <v>-0.31999999999999984</v>
+      </c>
+      <c r="I3">
+        <f>C3-F$2</f>
+        <v>-0.85999999999999943</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="1">H3^2</f>
+        <v>0.10239999999999989</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="2">I3^2</f>
+        <v>0.73959999999999904</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="3">H3*I3</f>
+        <v>0.27519999999999967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.4</v>
+      </c>
+      <c r="C4">
+        <v>9.1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I3:I6" si="4">C4-F$2</f>
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>1.4400000000000026E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0.40960000000000074</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>-7.6800000000000132E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.4</v>
+      </c>
+      <c r="C5">
+        <v>7.3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>-1.1599999999999993</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.4400000000000026E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1.3455999999999984</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>0.13920000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6">
+        <v>11.8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>3.3400000000000016</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.1664000000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>11.15560000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>3.607200000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <f>SUM(L2:L6)/4</f>
+        <v>1.2410000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J2:J6)/4</f>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K2:K6)/4</f>
+        <v>4.3730000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <f>SQRT(J10)</f>
+        <v>0.62609903369994113</v>
+      </c>
+      <c r="K11">
+        <f>SQRT(K10)</f>
+        <v>2.0911719202399408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <f>L9/(J11*K11)</f>
+        <v>0.94784867935912531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14">
+        <f>CORREL(B2:B6,C2:C6)</f>
+        <v>0.94784867935912553</v>
       </c>
     </row>
   </sheetData>
